--- a/Hx.BackAdmin/App_Data/客服日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/客服日报表模板.xlsx
@@ -745,13 +745,13 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AK10" sqref="AK10"/>
+      <selection pane="bottomRight" activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="11" width="5.625" style="1" customWidth="1"/>
     <col min="12" max="29" width="5.625" style="1" hidden="1" customWidth="1"/>
     <col min="30" max="33" width="5.625" style="1" customWidth="1"/>

--- a/Hx.BackAdmin/App_Data/客服日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/客服日报表模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>成功率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,14 @@
   </si>
   <si>
     <t>首次邀约成功来店数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>定保招揽数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>定保客户来厂数</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +375,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -413,6 +421,9 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,6 +446,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -739,13 +753,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL22"/>
+  <dimension ref="A1:AL24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AJ7" sqref="AJ7"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="13.5"/>
@@ -760,76 +774,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
     </row>
     <row r="3" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="9" t="s">
@@ -941,7 +955,7 @@
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="11"/>
@@ -976,7 +990,7 @@
       <c r="AF4" s="11"/>
       <c r="AG4" s="11"/>
       <c r="AH4" s="8">
-        <f t="shared" ref="AH4:AH19" si="0">SUM(C4:AG4)</f>
+        <f t="shared" ref="AH4:AH21" si="0">SUM(C4:AG4)</f>
         <v>0</v>
       </c>
       <c r="AL4" s="7"/>
@@ -985,7 +999,7 @@
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1027,7 +1041,7 @@
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -1112,7 +1126,7 @@
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="11"/>
@@ -1158,7 +1172,7 @@
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -1203,7 +1217,7 @@
       <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -1245,7 +1259,7 @@
       <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -1288,102 +1302,96 @@
     </row>
     <row r="12" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="24"/>
     </row>
     <row r="13" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B13" s="21"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="24"/>
     </row>
     <row r="14" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>7</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B14" s="21"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -1412,17 +1420,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI14" s="5" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>6</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B15" s="22"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -1461,9 +1464,11 @@
     </row>
     <row r="16" spans="1:38" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="20"/>
+        <v>17</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -1499,12 +1504,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AI16" s="5" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:34" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>6</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -1543,9 +1553,9 @@
     </row>
     <row r="18" spans="1:34" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="B18" s="21"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
@@ -1584,7 +1594,7 @@
     </row>
     <row r="19" spans="1:34" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="11"/>
@@ -1623,48 +1633,130 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="27" customHeight="1">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:34" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="27" customHeight="1">
+      <c r="A22" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22"/>
-      <c r="AG20" s="22"/>
-    </row>
-    <row r="22" spans="1:34">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1672,13 +1764,13 @@
   <mergeCells count="5">
     <mergeCell ref="A1:AG2"/>
     <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="A20:AG20"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A22:AG22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1"/>
+    <hyperlink ref="B24" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>

--- a/Hx.BackAdmin/App_Data/客服日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/客服日报表模板.xlsx
@@ -129,9 +129,6 @@
     <t>活动招揽电话量</t>
   </si>
   <si>
-    <t>流失客户招徕电话量</t>
-  </si>
-  <si>
     <t>电话呼出总量</t>
   </si>
   <si>
@@ -237,10 +234,6 @@
   </si>
   <si>
     <t>流失客户来店数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>流失招徕数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -358,6 +351,14 @@
   </si>
   <si>
     <t>基盘保有客户量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流失客户招揽电话量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流失招揽数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1070,7 +1071,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AK44" sqref="AK44"/>
+      <selection pane="bottomRight" activeCell="AH18" sqref="AH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="13.5"/>
@@ -1271,7 +1272,7 @@
         <v>31</v>
       </c>
       <c r="AH3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI3" s="8" t="s">
         <v>12</v>
@@ -1280,7 +1281,7 @@
     </row>
     <row r="4" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>2</v>
@@ -1322,36 +1323,36 @@
         <v>0</v>
       </c>
       <c r="AK4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL4" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN4" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO4" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ4" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR4" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS4" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AL4" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM4" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN4" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO4" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ4" s="24" t="s">
+      <c r="AT4" s="26" t="s">
         <v>81</v>
-      </c>
-      <c r="AR4" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS4" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT4" s="26" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="11"/>
@@ -1391,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AL5" s="16" t="e">
         <f>AH5/AH4</f>
@@ -1410,14 +1411,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ5" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AR5" s="33" t="e">
         <f>AI7/AI6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS5" s="31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT5" s="32" t="e">
         <f>AI32/$AI$31</f>
@@ -1466,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL6" s="16" t="e">
         <f>AI5/AI4</f>
@@ -1485,14 +1486,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AQ6" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AR6" s="33" t="e">
         <f>AI8/AI6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS6" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AT6" s="32" t="e">
         <f t="shared" ref="AT6:AT12" si="1">AI33/$AI$31</f>
@@ -1501,7 +1502,7 @@
     </row>
     <row r="7" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="11"/>
@@ -1541,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AL7" s="16" t="e">
         <f t="shared" ref="AL7:AO7" si="2">AL6/AL5</f>
@@ -1561,14 +1562,14 @@
       </c>
       <c r="AP7" s="17"/>
       <c r="AQ7" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AR7" s="33" t="e">
         <f>AI9/AI6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS7" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AT7" s="32" t="e">
         <f t="shared" si="1"/>
@@ -1577,7 +1578,7 @@
     </row>
     <row r="8" spans="1:46" ht="27" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="11"/>
@@ -1617,29 +1618,29 @@
         <v>0</v>
       </c>
       <c r="AK8" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AL8" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM8" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN8" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="AM8" s="19" t="s">
+      <c r="AO8" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AN8" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO8" s="28" t="s">
-        <v>74</v>
-      </c>
       <c r="AQ8" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AR8" s="33" t="e">
         <f>AI10/AI6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS8" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AT8" s="32" t="e">
         <f t="shared" si="1"/>
@@ -1648,7 +1649,7 @@
     </row>
     <row r="9" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="39"/>
       <c r="C9" s="11"/>
@@ -1688,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AL9" s="16" t="e">
         <f>AH18/AH17</f>
@@ -1704,14 +1705,14 @@
       </c>
       <c r="AO9" s="16"/>
       <c r="AQ9" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AR9" s="33" t="e">
         <f>AI11/AI6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS9" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AT9" s="32" t="e">
         <f t="shared" si="1"/>
@@ -1720,7 +1721,7 @@
     </row>
     <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="11"/>
@@ -1760,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL10" s="16" t="e">
         <f>AI18/AI17</f>
@@ -1776,14 +1777,14 @@
       </c>
       <c r="AO10" s="16"/>
       <c r="AQ10" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AR10" s="33" t="e">
         <f>AI12/AI6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AS10" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT10" s="32" t="e">
         <f t="shared" si="1"/>
@@ -1792,7 +1793,7 @@
     </row>
     <row r="11" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="14"/>
@@ -1832,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AL11" s="16" t="e">
         <f t="shared" ref="AL11:AO11" si="3">AL10/AL9</f>
@@ -1853,7 +1854,7 @@
       <c r="AQ11" s="20"/>
       <c r="AR11" s="20"/>
       <c r="AS11" s="31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT11" s="32" t="e">
         <f t="shared" si="1"/>
@@ -1862,7 +1863,7 @@
     </row>
     <row r="12" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="14"/>
@@ -1908,7 +1909,7 @@
       <c r="AQ12" s="20"/>
       <c r="AR12" s="20"/>
       <c r="AS12" s="31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AT12" s="32" t="e">
         <f t="shared" si="1"/>
@@ -1917,7 +1918,7 @@
     </row>
     <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="39"/>
       <c r="C13" s="11"/>
@@ -1965,7 +1966,7 @@
     </row>
     <row r="14" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="11"/>
@@ -2005,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AL14" s="20"/>
       <c r="AM14" s="20"/>
@@ -2016,7 +2017,7 @@
     </row>
     <row r="15" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="11"/>
@@ -2056,22 +2057,22 @@
         <v>0</v>
       </c>
       <c r="AK15" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM15" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO15" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="AL15" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM15" s="26" t="s">
+      <c r="AP15" s="24" t="s">
         <v>85</v>
-      </c>
-      <c r="AN15" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO15" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP15" s="24" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:46" ht="20.100000000000001" customHeight="1">
@@ -2116,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AL16" s="22"/>
       <c r="AM16" s="23"/>
@@ -2126,7 +2127,7 @@
     </row>
     <row r="17" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="7"/>
@@ -2166,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AL17" s="22"/>
       <c r="AM17" s="23"/>
@@ -2176,7 +2177,7 @@
     </row>
     <row r="18" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="11"/>
@@ -2218,7 +2219,7 @@
     </row>
     <row r="19" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="14"/>
@@ -2260,7 +2261,7 @@
     </row>
     <row r="20" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="11"/>
@@ -2512,7 +2513,7 @@
     </row>
     <row r="26" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="11"/>
@@ -2554,7 +2555,7 @@
     </row>
     <row r="27" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="11"/>
@@ -2596,7 +2597,7 @@
     </row>
     <row r="28" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="14"/>
@@ -2638,7 +2639,7 @@
     </row>
     <row r="29" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="11"/>
@@ -2680,7 +2681,7 @@
     </row>
     <row r="30" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="14"/>
@@ -3100,7 +3101,7 @@
     </row>
     <row r="40" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -3186,7 +3187,7 @@
     </row>
     <row r="42" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42" s="40"/>
       <c r="C42" s="7"/>

--- a/Hx.BackAdmin/App_Data/客服日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/客服日报表模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>每天发送：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,6 +359,10 @@
   </si>
   <si>
     <t>流失招揽数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -635,7 +639,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,6 +742,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -760,6 +770,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1065,13 +1081,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT48"/>
+  <dimension ref="A1:AT50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AH18" sqref="AH18"/>
+      <selection pane="bottomRight" activeCell="AK43" sqref="AK43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="13.5"/>
@@ -1098,77 +1114,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
       <c r="AH1" s="12"/>
     </row>
     <row r="2" spans="1:46" ht="15" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
       <c r="AH2" s="12"/>
     </row>
     <row r="3" spans="1:46" ht="20.100000000000001" customHeight="1">
@@ -1283,7 +1299,7 @@
       <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="40" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="7"/>
@@ -1319,7 +1335,7 @@
       <c r="AG4" s="7"/>
       <c r="AH4" s="14"/>
       <c r="AI4" s="4">
-        <f t="shared" ref="AI4:AI45" si="0">SUM(C4:AG4)</f>
+        <f t="shared" ref="AI4:AI47" si="0">SUM(C4:AG4)</f>
         <v>0</v>
       </c>
       <c r="AK4" s="24" t="s">
@@ -1354,7 +1370,7 @@
       <c r="A5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1399,7 +1415,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AM5" s="16" t="e">
-        <f>AH30/AH29</f>
+        <f>AH31/AH30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AN5" s="16" t="e">
@@ -1407,7 +1423,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO5" s="16" t="e">
-        <f>(AH30-AH31)/AH30</f>
+        <f>(AH31-AH32)/AH31</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ5" s="30" t="s">
@@ -1421,7 +1437,7 @@
         <v>61</v>
       </c>
       <c r="AT5" s="32" t="e">
-        <f>AI32/$AI$31</f>
+        <f>AI33/$AI$32</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1429,7 +1445,7 @@
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -1474,7 +1490,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AM6" s="16" t="e">
-        <f>AI30/AI29</f>
+        <f>AI31/AI30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AN6" s="16" t="e">
@@ -1482,7 +1498,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AO6" s="16" t="e">
-        <f>(AI30-AI31)/AI30</f>
+        <f>(AI31-AI32)/AI31</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AQ6" s="30" t="s">
@@ -1496,7 +1512,7 @@
         <v>75</v>
       </c>
       <c r="AT6" s="32" t="e">
-        <f t="shared" ref="AT6:AT12" si="1">AI33/$AI$31</f>
+        <f t="shared" ref="AT6:AT12" si="1">AI34/$AI$32</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1504,7 +1520,7 @@
       <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1580,7 +1596,7 @@
       <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -1651,7 +1667,7 @@
       <c r="A9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -1692,15 +1708,15 @@
         <v>31</v>
       </c>
       <c r="AL9" s="16" t="e">
-        <f>AH18/AH17</f>
+        <f>AH19/AH18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM9" s="16" t="e">
-        <f>AH21/AH20</f>
+        <f>AH22/AH21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AN9" s="16" t="e">
-        <f>AH27/AH26</f>
+        <f>AH28/AH27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO9" s="16"/>
@@ -1723,7 +1739,7 @@
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -1764,15 +1780,15 @@
         <v>36</v>
       </c>
       <c r="AL10" s="16" t="e">
-        <f>AI18/AI17</f>
+        <f>AI19/AI18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AM10" s="16" t="e">
-        <f>AI21/AI20</f>
+        <f>AI22/AI21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AN10" s="16" t="e">
-        <f>AI27/AI26</f>
+        <f>AI28/AI27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" s="16"/>
@@ -1795,7 +1811,7 @@
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -1865,7 +1881,7 @@
       <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="39"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -1918,41 +1934,41 @@
     </row>
     <row r="13" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="14"/>
+        <v>89</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
       <c r="AI13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1963,12 +1979,14 @@
       <c r="AO13" s="20"/>
       <c r="AQ13" s="20"/>
       <c r="AR13" s="20"/>
+      <c r="AS13" s="44"/>
+      <c r="AT13" s="45"/>
     </row>
     <row r="14" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="39"/>
+        <v>50</v>
+      </c>
+      <c r="B14" s="41"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -2017,9 +2035,9 @@
     </row>
     <row r="15" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="39"/>
+        <v>49</v>
+      </c>
+      <c r="B15" s="41"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -2074,12 +2092,14 @@
       <c r="AP15" s="24" t="s">
         <v>85</v>
       </c>
+      <c r="AQ15" s="20"/>
+      <c r="AR15" s="20"/>
     </row>
     <row r="16" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="39"/>
+        <v>43</v>
+      </c>
+      <c r="B16" s="41"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -2127,40 +2147,40 @@
     </row>
     <row r="17" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
       <c r="AH17" s="14"/>
       <c r="AI17" s="4">
         <f t="shared" si="0"/>
@@ -2177,40 +2197,40 @@
     </row>
     <row r="18" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
       <c r="AH18" s="14"/>
       <c r="AI18" s="4">
         <f t="shared" si="0"/>
@@ -2219,40 +2239,40 @@
     </row>
     <row r="19" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
+        <v>54</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
       <c r="AH19" s="14"/>
       <c r="AI19" s="4">
         <f t="shared" si="0"/>
@@ -2261,40 +2281,40 @@
     </row>
     <row r="20" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
       <c r="AH20" s="14"/>
       <c r="AI20" s="4">
         <f t="shared" si="0"/>
@@ -2303,9 +2323,9 @@
     </row>
     <row r="21" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="B21" s="41"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -2345,40 +2365,40 @@
     </row>
     <row r="22" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="41"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
       <c r="AH22" s="14"/>
       <c r="AI22" s="4">
         <f t="shared" si="0"/>
@@ -2387,40 +2407,40 @@
     </row>
     <row r="23" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="B23" s="41"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
       <c r="AH23" s="14"/>
       <c r="AI23" s="4">
         <f t="shared" si="0"/>
@@ -2429,40 +2449,40 @@
     </row>
     <row r="24" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="14"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="41"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
       <c r="AH24" s="14"/>
       <c r="AI24" s="4">
         <f t="shared" si="0"/>
@@ -2471,9 +2491,9 @@
     </row>
     <row r="25" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="39"/>
+        <v>27</v>
+      </c>
+      <c r="B25" s="41"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -2513,40 +2533,40 @@
     </row>
     <row r="26" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="B26" s="41"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
       <c r="AH26" s="14"/>
       <c r="AI26" s="4">
         <f t="shared" si="0"/>
@@ -2555,9 +2575,9 @@
     </row>
     <row r="27" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="39"/>
+        <v>88</v>
+      </c>
+      <c r="B27" s="41"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -2597,40 +2617,40 @@
     </row>
     <row r="28" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
+        <v>57</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
       <c r="AH28" s="14"/>
       <c r="AI28" s="4">
         <f t="shared" si="0"/>
@@ -2639,40 +2659,40 @@
     </row>
     <row r="29" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="B29" s="41"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="14"/>
       <c r="AH29" s="14"/>
       <c r="AI29" s="4">
         <f t="shared" si="0"/>
@@ -2681,40 +2701,40 @@
     </row>
     <row r="30" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="B30" s="41"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
       <c r="AH30" s="14"/>
       <c r="AI30" s="4">
         <f t="shared" si="0"/>
@@ -2723,40 +2743,40 @@
     </row>
     <row r="31" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="B31" s="41"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
       <c r="AH31" s="14"/>
       <c r="AI31" s="4">
         <f t="shared" si="0"/>
@@ -2765,40 +2785,40 @@
     </row>
     <row r="32" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="11"/>
-      <c r="AF32" s="11"/>
-      <c r="AG32" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="B32" s="42"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
       <c r="AH32" s="14"/>
       <c r="AI32" s="4">
         <f t="shared" si="0"/>
@@ -2807,7 +2827,7 @@
     </row>
     <row r="33" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
@@ -2849,7 +2869,7 @@
     </row>
     <row r="34" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
@@ -2891,7 +2911,7 @@
     </row>
     <row r="35" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
@@ -2933,7 +2953,7 @@
     </row>
     <row r="36" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
@@ -2975,7 +2995,7 @@
     </row>
     <row r="37" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
@@ -3017,7 +3037,7 @@
     </row>
     <row r="38" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
@@ -3059,7 +3079,7 @@
     </row>
     <row r="39" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
@@ -3101,40 +3121,40 @@
     </row>
     <row r="40" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="14"/>
-      <c r="Y40" s="14"/>
-      <c r="Z40" s="14"/>
-      <c r="AA40" s="14"/>
-      <c r="AB40" s="14"/>
-      <c r="AC40" s="14"/>
-      <c r="AD40" s="14"/>
-      <c r="AE40" s="14"/>
-      <c r="AF40" s="14"/>
-      <c r="AG40" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
       <c r="AH40" s="14"/>
       <c r="AI40" s="4">
         <f t="shared" si="0"/>
@@ -3143,43 +3163,41 @@
     </row>
     <row r="41" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="7"/>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
-      <c r="Z41" s="7"/>
-      <c r="AA41" s="7"/>
-      <c r="AB41" s="7"/>
-      <c r="AC41" s="7"/>
-      <c r="AD41" s="7"/>
-      <c r="AE41" s="7"/>
-      <c r="AF41" s="7"/>
-      <c r="AG41" s="7"/>
-      <c r="AH41" s="14"/>
+        <v>89</v>
+      </c>
+      <c r="B41" s="34"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
+      <c r="AD41" s="35"/>
+      <c r="AE41" s="35"/>
+      <c r="AF41" s="35"/>
+      <c r="AG41" s="35"/>
+      <c r="AH41" s="35"/>
       <c r="AI41" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3187,40 +3205,40 @@
     </row>
     <row r="42" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="7"/>
-      <c r="AB42" s="7"/>
-      <c r="AC42" s="7"/>
-      <c r="AD42" s="7"/>
-      <c r="AE42" s="7"/>
-      <c r="AF42" s="7"/>
-      <c r="AG42" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="14"/>
+      <c r="AG42" s="14"/>
       <c r="AH42" s="14"/>
       <c r="AI42" s="4">
         <f t="shared" si="0"/>
@@ -3229,18 +3247,18 @@
     </row>
     <row r="43" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B43" s="41"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="I43" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -3273,9 +3291,9 @@
     </row>
     <row r="44" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="39"/>
+        <v>30</v>
+      </c>
+      <c r="B44" s="42"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -3315,9 +3333,11 @@
     </row>
     <row r="45" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="40"/>
+        <v>5</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -3355,63 +3375,147 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="27" customHeight="1">
-      <c r="A46" s="41" t="s">
+    <row r="46" spans="1:35" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="41"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="14"/>
+      <c r="AI46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="42"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="14"/>
+      <c r="AI47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" ht="27" customHeight="1">
+      <c r="A48" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
-      <c r="S46" s="41"/>
-      <c r="T46" s="41"/>
-      <c r="U46" s="41"/>
-      <c r="V46" s="41"/>
-      <c r="W46" s="41"/>
-      <c r="X46" s="41"/>
-      <c r="Y46" s="41"/>
-      <c r="Z46" s="41"/>
-      <c r="AA46" s="41"/>
-      <c r="AB46" s="41"/>
-      <c r="AC46" s="41"/>
-      <c r="AD46" s="41"/>
-      <c r="AE46" s="41"/>
-      <c r="AF46" s="41"/>
-      <c r="AG46" s="41"/>
-      <c r="AH46" s="15"/>
-    </row>
-    <row r="48" spans="1:35">
-      <c r="A48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="43"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="43"/>
+      <c r="V48" s="43"/>
+      <c r="W48" s="43"/>
+      <c r="X48" s="43"/>
+      <c r="Y48" s="43"/>
+      <c r="Z48" s="43"/>
+      <c r="AA48" s="43"/>
+      <c r="AB48" s="43"/>
+      <c r="AC48" s="43"/>
+      <c r="AD48" s="43"/>
+      <c r="AE48" s="43"/>
+      <c r="AF48" s="43"/>
+      <c r="AG48" s="43"/>
+      <c r="AH48" s="15"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:AG2"/>
-    <mergeCell ref="B4:B31"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A46:AG46"/>
+    <mergeCell ref="B4:B32"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A48:AG48"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B48" r:id="rId1"/>
+    <hyperlink ref="B50" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
